--- a/biology/Botanique/Eucalyptus_coolabah/Eucalyptus_coolabah.xlsx
+++ b/biology/Botanique/Eucalyptus_coolabah/Eucalyptus_coolabah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus coolabah est un eucalyptus des zones ripariennes que l'on trouve dans toute l'Australie depuis les régions arides de l'intérieur aux régions côtières. La plante est communément appelée Coolibah ou Coolabah en anglais, un terme emprunté au mot gulabaa des Aborigènes Yuwaaliyaay.
 Pour germer, la graine a besoin d'une immersion et, par conséquent l'espèce est confinée aux régions où il y a au moins des inondations périodiques. Néanmoins, l'arbre peut être trouvé sur de vastes étendues de plaines inondables, même loin des zones d'eau permanente, ainsi que près des zones inondées périodiquement ou à proximité de plans d'eau permanents.
@@ -513,7 +525,9 @@
           <t>Espèces semblables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est très semblable à E. microtheca. La principale différence extérieure est que ce dernier a une écorce complètement lisse.
 </t>
